--- a/biology/Biochimie/Méthylmalonyl-coenzyme_A/Méthylmalonyl-coenzyme_A.xlsx
+++ b/biology/Biochimie/Méthylmalonyl-coenzyme_A/Méthylmalonyl-coenzyme_A.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9thylmalonyl-coenzyme_A</t>
+          <t>Méthylmalonyl-coenzyme_A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La méthylmalonyl-coenzyme A, généralement écrite méthylmalonyl-CoA, est un thioester de la coenzyme A et de l'acide méthylmalonique.
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9thylmalonyl-coenzyme_A</t>
+          <t>Méthylmalonyl-coenzyme_A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,9 +529,11 @@
           <t>Maladies apparentées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la maladie métabolique de l'acidurie combinée malonique et méthylmalonique (CMAMMA) due à l'ACSF3, la méthylmalonyl-CoA synthétase est réduite, ce qui convertit l'acide méthylmalonique toxique en méthylmalonyl-CoA et l'alimente ainsi dans le cycle de Krebs[2],[3]. Il en résulte une accumulation d'acide méthylmalonique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la maladie métabolique de l'acidurie combinée malonique et méthylmalonique (CMAMMA) due à l'ACSF3, la méthylmalonyl-CoA synthétase est réduite, ce qui convertit l'acide méthylmalonique toxique en méthylmalonyl-CoA et l'alimente ainsi dans le cycle de Krebs,. Il en résulte une accumulation d'acide méthylmalonique.
 </t>
         </is>
       </c>
